--- a/Draft Test Cases.xlsx
+++ b/Draft Test Cases.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CAB302 SOFTWARE DEVELOPMENT\Assignment 2 working dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\CAB302\cab302-assignment-2-group-102\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{EB2E8C57-C95C-4F97-88B8-DF532AF369C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>Item Tests</t>
   </si>
@@ -159,12 +159,42 @@
   </si>
   <si>
     <t>Does name equal expected test name</t>
+  </si>
+  <si>
+    <t>Test if a duplicated item object is being created</t>
+  </si>
+  <si>
+    <t>Refridgerated Truck Test</t>
+  </si>
+  <si>
+    <t>Sum of Item test</t>
+  </si>
+  <si>
+    <t>can stock quantites be remove based on how many are being sold</t>
+  </si>
+  <si>
+    <t>Can stock quantites be added based on how many are incoming</t>
+  </si>
+  <si>
+    <t>Can return a list of items;</t>
+  </si>
+  <si>
+    <t>Can return a list of items and their quanities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned </t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,9 +232,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,63 +553,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BC9B3C-22CB-492B-857A-05EEB9476C30}">
-  <dimension ref="A1:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -585,9 +615,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -596,9 +626,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -607,9 +637,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -618,9 +648,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -629,352 +659,484 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="23" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>28</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
         <v>18</v>
       </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>30</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="42" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C36" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>33</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="C46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>34</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="47" spans="1:4" ht="26" x14ac:dyDescent="0.6">
+      <c r="A47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>35</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
         <v>38</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C49" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>37</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
         <v>38</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
         <v>38</v>
       </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>39</v>
-      </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
